--- a/NLP/crime.xlsx
+++ b/NLP/crime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaiwalya\Desktop\nlp\Github\Direct_Democracy\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D0C45-50D7-409C-A398-85C6E5C90A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F831D8-D0B1-4C63-82F2-7D4E21E1D3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1860" windowWidth="15285" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
